--- a/Documentazione/Allegati/ListaMaterialeCosti/ListaCostoMateriale.xlsx
+++ b/Documentazione/Allegati/ListaMaterialeCosti/ListaCostoMateriale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\mod-306\CaseArduino\Documentazione\Allegati\ListaMaterialeCosti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>Costo Orario</t>
   </si>
   <si>
-    <t>60 CHF / h</t>
-  </si>
-  <si>
     <t>28 h</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>10 CHF</t>
+  </si>
+  <si>
+    <t>62 CHF / h</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,29 +518,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>20</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C11" s="8"/>
     </row>
